--- a/sport/output/46.atp.xlsx
+++ b/sport/output/46.atp.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaojunying/WorkSpace/Spider/sport/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B43459C-82F3-D34B-BD81-EAA0735D2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="24600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Tournaments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -59,7 +52,7 @@
     <t>United Cup</t>
   </si>
   <si>
-    <t>Brisbane International presented by Evie</t>
+    <t>Brisbane International presented by ANZ</t>
   </si>
   <si>
     <t>Bank of China Hong Kong Tennis Open</t>
@@ -107,7 +100,7 @@
     <t>Abierto Mexicano Telcel presentado por HSBC</t>
   </si>
   <si>
-    <t>Movistar Chile Open</t>
+    <t>Bci Seguros ChileOpen</t>
   </si>
   <si>
     <t>BNP Paribas Open</t>
@@ -131,7 +124,7 @@
     <t>Barcelona Open Banc Sabadell</t>
   </si>
   <si>
-    <t>BMW Open</t>
+    <t>BMW Open by Bitpanda</t>
   </si>
   <si>
     <t>Mutua Madrid Open</t>
@@ -140,7 +133,7 @@
     <t>Internazionali BNL d'Italia</t>
   </si>
   <si>
-    <t>Hamburg Open</t>
+    <t>Bitpanda Hamburg Open</t>
   </si>
   <si>
     <t>Gonet Geneva Open</t>
@@ -161,7 +154,7 @@
     <t>Terra Wortmann Open</t>
   </si>
   <si>
-    <t>Mallorca Championships presented by Waterdrop</t>
+    <t>Mallorca Championships presented by ecotrans Group</t>
   </si>
   <si>
     <t>Lexus Eastbourne Open</t>
@@ -179,15 +172,15 @@
     <t>Nordea Open</t>
   </si>
   <si>
+    <t>Plava Laguna Croatia Open Umag</t>
+  </si>
+  <si>
+    <t>Mubadala Citi DC Open</t>
+  </si>
+  <si>
     <t>Generali Open</t>
   </si>
   <si>
-    <t>Plava Laguna Croatia Open Umag</t>
-  </si>
-  <si>
-    <t>Mubadala Citi DC Open</t>
-  </si>
-  <si>
     <t>National Bank Open Presented by Rogers</t>
   </si>
   <si>
@@ -206,7 +199,7 @@
     <t>Chengdu Open</t>
   </si>
   <si>
-    <t>Hangzhou Open</t>
+    <t>Lynk &amp; Co Hangzhou Open</t>
   </si>
   <si>
     <t>Laver Cup</t>
@@ -224,12 +217,12 @@
     <t>Almaty Open</t>
   </si>
   <si>
+    <t>BNP Paribas Fortis European Open</t>
+  </si>
+  <si>
     <t>BNP Paribas Nordic Open</t>
   </si>
   <si>
-    <t>European Open</t>
-  </si>
-  <si>
     <t>Erste Bank Open</t>
   </si>
   <si>
@@ -239,7 +232,7 @@
     <t>Rolex Paris Masters</t>
   </si>
   <si>
-    <t>Belgrade Open</t>
+    <t>Vanda Pharmaceuticals Hellenic Championship</t>
   </si>
   <si>
     <t>Moselle Open</t>
@@ -377,15 +370,15 @@
     <t>316</t>
   </si>
   <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
     <t>319</t>
   </si>
   <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
     <t>421</t>
   </si>
   <si>
@@ -422,12 +415,12 @@
     <t>9410</t>
   </si>
   <si>
+    <t>7485</t>
+  </si>
+  <si>
     <t>429</t>
   </si>
   <si>
-    <t>7485</t>
-  </si>
-  <si>
     <t>337</t>
   </si>
   <si>
@@ -437,7 +430,7 @@
     <t>352</t>
   </si>
   <si>
-    <t>4787</t>
+    <t>5100</t>
   </si>
   <si>
     <t>341</t>
@@ -578,15 +571,15 @@
     <t>Bastad, Sweden</t>
   </si>
   <si>
+    <t>Umag, Croatia</t>
+  </si>
+  <si>
+    <t>Washington, United States</t>
+  </si>
+  <si>
     <t>Kitzbuhel, Austria</t>
   </si>
   <si>
-    <t>Umag, Croatia</t>
-  </si>
-  <si>
-    <t>Washington, United States</t>
-  </si>
-  <si>
     <t>Toronto, Canada</t>
   </si>
   <si>
@@ -620,19 +613,19 @@
     <t>Almaty, Kazakhstan</t>
   </si>
   <si>
+    <t>Brussels, Belgium</t>
+  </si>
+  <si>
     <t>Stockholm, Sweden</t>
   </si>
   <si>
-    <t>Brussels, Belgium</t>
-  </si>
-  <si>
     <t>Vienna, Austria</t>
   </si>
   <si>
     <t>Basel, Switzerland</t>
   </si>
   <si>
-    <t>Belgrade, Serbia</t>
+    <t>Athens, Greece</t>
   </si>
   <si>
     <t>Metz, France</t>
@@ -707,7 +700,7 @@
     <t>http://www.chileopen.cl/</t>
   </si>
   <si>
-    <t>https://bnpparibasopen.com/tickets/?utm_source=ATP&amp;utm_medium=referral&amp;utm_campaign=tickets25</t>
+    <t>https://bnpparibasopen.com/</t>
   </si>
   <si>
     <t>https://www.miamiopen.com/</t>
@@ -764,7 +757,7 @@
     <t>https://www.wimbledon.com/index.html</t>
   </si>
   <si>
-    <t>http://www.abiertoloscabos.com/</t>
+    <t>https://am.ticketmaster.com/mextenis/en/buy</t>
   </si>
   <si>
     <t>https://swissopengstaad.ch/</t>
@@ -773,15 +766,15 @@
     <t>https://nordeaopen.se/this-is-bastad/</t>
   </si>
   <si>
+    <t>https://www.croatiaopen.hr/en/tickets/ulaznice</t>
+  </si>
+  <si>
+    <t>https://www.mubadalacitidcopen.com/en/</t>
+  </si>
+  <si>
     <t>http://www.generaliopen.com/en/</t>
   </si>
   <si>
-    <t>https://www.croatiaopen.hr</t>
-  </si>
-  <si>
-    <t>https://www.mubadalacitidcopen.com/en/</t>
-  </si>
-  <si>
     <t>https://nationalbankopen.com/</t>
   </si>
   <si>
@@ -794,7 +787,7 @@
     <t>https://www.usopen.org</t>
   </si>
   <si>
-    <t>https://chengduopentennis.com/</t>
+    <t>https://www.facebook.com/chengduopentennis/</t>
   </si>
   <si>
     <t>http://www.hangzhouopen.com</t>
@@ -809,15 +802,18 @@
     <t>https://www.chinaopen.com/</t>
   </si>
   <si>
-    <t>http://en.shanghairolexmasters.com/</t>
+    <t>https://en.rolexshanghaimasters.com/en</t>
+  </si>
+  <si>
+    <t>https://www.dss-almatyarena.kz/atp-250?utm_source=atp_tour_website&amp;utm_medium=traffic&amp;utm_campaign=traffic_website_from_atp&amp;utm_term=website&amp;utm_content=link</t>
+  </si>
+  <si>
+    <t>https://europeanopen.be/</t>
   </si>
   <si>
     <t>https://www.stockholmopen.se/en/</t>
   </si>
   <si>
-    <t>https://europeanopen.be/</t>
-  </si>
-  <si>
     <t>https://www.erstebank-open.com/en/tickets/tickets</t>
   </si>
   <si>
@@ -827,10 +823,10 @@
     <t>https://www.rolexparismasters.com/en</t>
   </si>
   <si>
-    <t>https://serbiaopen.org/</t>
-  </si>
-  <si>
-    <t>https://www.moselle-open.com</t>
+    <t>https://hellenicchampionship.com/</t>
+  </si>
+  <si>
+    <t>https://tickets-moselle-open.com/</t>
   </si>
   <si>
     <t>https://www.nittoatpfinals.com/en/tickets?aff=atp_web_natpf_profile</t>
@@ -884,7 +880,7 @@
     <t>$11,000,535</t>
   </si>
   <si>
-    <t>€6,832,435</t>
+    <t>€6,600,165</t>
   </si>
   <si>
     <t>€3,050,800</t>
@@ -893,43 +889,52 @@
     <t>€2,747,360</t>
   </si>
   <si>
-    <t>€9,797,365</t>
-  </si>
-  <si>
-    <t>€9,645,265</t>
+    <t>€9,565,100</t>
+  </si>
+  <si>
+    <t>€9,410,150</t>
   </si>
   <si>
     <t>€2,320,160</t>
   </si>
   <si>
-    <t>€778,445</t>
-  </si>
-  <si>
-    <t>€733,665</t>
+    <t>€26,334,000</t>
+  </si>
+  <si>
+    <t>€828,950</t>
+  </si>
+  <si>
+    <t>€784,170</t>
   </si>
   <si>
     <t>€2,683,820</t>
   </si>
   <si>
-    <t>€783,690</t>
+    <t>€834,195</t>
+  </si>
+  <si>
+    <t>£24,919,000</t>
   </si>
   <si>
     <t>$920,480</t>
   </si>
   <si>
-    <t>$10,913,715</t>
-  </si>
-  <si>
-    <t>$10,699,452</t>
-  </si>
-  <si>
-    <t>$828,925</t>
-  </si>
-  <si>
-    <t>$1,220,805</t>
-  </si>
-  <si>
-    <t>$1,049,780</t>
+    <t>$10,658,890</t>
+  </si>
+  <si>
+    <t>$10,699,455</t>
+  </si>
+  <si>
+    <t>$884,485</t>
+  </si>
+  <si>
+    <t>$40,412,800</t>
+  </si>
+  <si>
+    <t>$1,276,360</t>
+  </si>
+  <si>
+    <t>$1,105,335</t>
   </si>
   <si>
     <t>$2,404,500</t>
@@ -938,10 +943,10 @@
     <t>$4,194,080</t>
   </si>
   <si>
-    <t>$10,897,410</t>
-  </si>
-  <si>
-    <t>$1,085,850</t>
+    <t>$10,899,875</t>
+  </si>
+  <si>
+    <t>$1,141,405</t>
   </si>
   <si>
     <t>€2,898,475</t>
@@ -950,10 +955,10 @@
     <t>€2,684,645</t>
   </si>
   <si>
-    <t>€7,703,855</t>
-  </si>
-  <si>
-    <t>793,530</t>
+    <t>€7,468,740</t>
+  </si>
+  <si>
+    <t>€844,035</t>
   </si>
   <si>
     <t>UC</t>
@@ -1043,12 +1048,12 @@
     <t>/-/media/images/flags/swe.svg</t>
   </si>
   <si>
+    <t>/-/media/images/flags/cro.svg</t>
+  </si>
+  <si>
     <t>/-/media/images/flags/aut.svg</t>
   </si>
   <si>
-    <t>/-/media/images/flags/cro.svg</t>
-  </si>
-  <si>
     <t>/-/media/images/flags/can.svg</t>
   </si>
   <si>
@@ -1064,7 +1069,7 @@
     <t>/-/media/images/flags/bel.svg</t>
   </si>
   <si>
-    <t>/-/media/images/flags/srb.svg</t>
+    <t>/-/media/images/flags/gre.svg</t>
   </si>
   <si>
     <t>/-/media/images/flags/ksa.svg</t>
@@ -1073,12 +1078,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1086,7 +1091,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1096,13 +1101,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1152,26 +1150,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1209,7 +1199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1243,7 +1233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1278,10 +1267,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,14 +1442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1498,7 +1484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1518,13 +1504,13 @@
         <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J2">
         <v>18</v>
@@ -1533,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1553,13 +1539,13 @@
         <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J3">
         <v>24</v>
@@ -1568,7 +1554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1588,13 +1574,13 @@
         <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J4">
         <v>16</v>
@@ -1603,7 +1589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1623,13 +1609,13 @@
         <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J5">
         <v>24</v>
@@ -1638,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1658,13 +1644,13 @@
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J6">
         <v>16</v>
@@ -1673,7 +1659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1693,13 +1679,13 @@
         <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J7">
         <v>64</v>
@@ -1708,7 +1694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1728,13 +1714,13 @@
         <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J8">
         <v>16</v>
@@ -1757,7 +1743,7 @@
         <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1766,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1786,13 +1772,13 @@
         <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H10" t="s">
         <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J10">
         <v>16</v>
@@ -1801,7 +1787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1821,13 +1807,13 @@
         <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" t="s">
         <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J11">
         <v>16</v>
@@ -1836,7 +1822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1856,13 +1842,13 @@
         <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J12">
         <v>16</v>
@@ -1871,7 +1857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1891,13 +1877,13 @@
         <v>221</v>
       </c>
       <c r="G13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J13">
         <v>16</v>
@@ -1906,7 +1892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1926,13 +1912,13 @@
         <v>222</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J14">
         <v>16</v>
@@ -1941,7 +1927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1961,13 +1947,13 @@
         <v>223</v>
       </c>
       <c r="G15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
         <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J15">
         <v>16</v>
@@ -1976,7 +1962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1996,13 +1982,13 @@
         <v>224</v>
       </c>
       <c r="G16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" t="s">
         <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J16">
         <v>16</v>
@@ -2011,7 +1997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2031,13 +2017,13 @@
         <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" t="s">
         <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -2046,7 +2032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2066,13 +2052,13 @@
         <v>226</v>
       </c>
       <c r="G18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J18">
         <v>16</v>
@@ -2081,7 +2067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2101,13 +2087,13 @@
         <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H19" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J19">
         <v>16</v>
@@ -2116,7 +2102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2136,13 +2122,13 @@
         <v>228</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I20" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J20">
         <v>32</v>
@@ -2151,7 +2137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2171,13 +2157,13 @@
         <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H21" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J21">
         <v>32</v>
@@ -2186,7 +2172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2206,13 +2192,13 @@
         <v>230</v>
       </c>
       <c r="G22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H22" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I22" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J22">
         <v>16</v>
@@ -2221,7 +2207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2241,13 +2227,13 @@
         <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H23" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J23">
         <v>16</v>
@@ -2273,13 +2259,13 @@
         <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I24" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J24">
         <v>16</v>
@@ -2288,7 +2274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2308,13 +2294,13 @@
         <v>232</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H25" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I25" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J25">
         <v>28</v>
@@ -2323,7 +2309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2343,13 +2329,13 @@
         <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H26" t="s">
         <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J26">
         <v>16</v>
@@ -2358,7 +2344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2378,13 +2364,13 @@
         <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H27" t="s">
         <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J27">
         <v>16</v>
@@ -2393,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2413,13 +2399,13 @@
         <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I28" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J28">
         <v>32</v>
@@ -2428,7 +2414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2448,13 +2434,13 @@
         <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J29">
         <v>32</v>
@@ -2463,7 +2449,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2483,13 +2469,13 @@
         <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H30" t="s">
         <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J30">
         <v>16</v>
@@ -2498,7 +2484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2518,13 +2504,13 @@
         <v>238</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H31" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I31" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J31">
         <v>16</v>
@@ -2533,7 +2519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2552,11 +2538,14 @@
       <c r="F32" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="G32" t="s">
+        <v>294</v>
+      </c>
       <c r="H32" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I32" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J32">
         <v>64</v>
@@ -2565,7 +2554,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2585,13 +2574,13 @@
         <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J33">
         <v>16</v>
@@ -2600,7 +2589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2620,13 +2609,13 @@
         <v>241</v>
       </c>
       <c r="G34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H34" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J34">
         <v>16</v>
@@ -2635,7 +2624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2655,13 +2644,13 @@
         <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H35" t="s">
         <v>111</v>
       </c>
       <c r="I35" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J35">
         <v>16</v>
@@ -2670,7 +2659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2690,13 +2679,13 @@
         <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H36" t="s">
         <v>111</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J36">
         <v>16</v>
@@ -2705,7 +2694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2725,13 +2714,13 @@
         <v>244</v>
       </c>
       <c r="G37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H37" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J37">
         <v>16</v>
@@ -2740,7 +2729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2760,13 +2749,13 @@
         <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H38" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J38">
         <v>16</v>
@@ -2775,7 +2764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2794,11 +2783,14 @@
       <c r="F39" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="G39" t="s">
+        <v>299</v>
+      </c>
       <c r="H39" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I39" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J39">
         <v>64</v>
@@ -2807,7 +2799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2827,13 +2819,13 @@
         <v>247</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H40" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J40">
         <v>16</v>
@@ -2842,7 +2834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2862,13 +2854,13 @@
         <v>248</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H41" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I41" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J41">
         <v>16</v>
@@ -2877,7 +2869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2897,13 +2889,13 @@
         <v>249</v>
       </c>
       <c r="G42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H42" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J42">
         <v>16</v>
@@ -2912,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2932,13 +2924,13 @@
         <v>250</v>
       </c>
       <c r="G43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H43" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J43">
         <v>16</v>
@@ -2947,7 +2939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2961,28 +2953,28 @@
         <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G44" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H44" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="J44">
         <v>16</v>
       </c>
       <c r="K44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2996,28 +2988,28 @@
         <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>252</v>
       </c>
       <c r="G45" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="J45">
         <v>16</v>
       </c>
       <c r="K45">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3037,13 +3029,13 @@
         <v>253</v>
       </c>
       <c r="G46" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J46">
         <v>32</v>
@@ -3052,7 +3044,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3072,13 +3064,13 @@
         <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I47" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J47">
         <v>32</v>
@@ -3087,7 +3079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -3107,13 +3099,13 @@
         <v>255</v>
       </c>
       <c r="G48" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H48" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J48">
         <v>16</v>
@@ -3122,7 +3114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3141,11 +3133,14 @@
       <c r="F49" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="G49" t="s">
+        <v>304</v>
+      </c>
       <c r="H49" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J49">
         <v>64</v>
@@ -3171,7 +3166,7 @@
         <v>208</v>
       </c>
       <c r="H50" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3180,7 +3175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -3200,13 +3195,13 @@
         <v>257</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H51" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I51" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J51">
         <v>16</v>
@@ -3215,7 +3210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3235,13 +3230,13 @@
         <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H52" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I52" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J52">
         <v>16</v>
@@ -3250,7 +3245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3270,10 +3265,10 @@
         <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I53" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J53">
         <v>12</v>
@@ -3282,7 +3277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3302,13 +3297,13 @@
         <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H54" t="s">
         <v>111</v>
       </c>
       <c r="I54" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J54">
         <v>16</v>
@@ -3317,7 +3312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3337,13 +3332,13 @@
         <v>261</v>
       </c>
       <c r="G55" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H55" t="s">
         <v>111</v>
       </c>
       <c r="I55" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J55">
         <v>16</v>
@@ -3352,7 +3347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3372,13 +3367,13 @@
         <v>262</v>
       </c>
       <c r="G56" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H56" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I56" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J56">
         <v>32</v>
@@ -3403,14 +3398,17 @@
       <c r="E57" t="s">
         <v>208</v>
       </c>
+      <c r="F57" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="G57" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H57" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I57" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J57">
         <v>16</v>
@@ -3419,7 +3417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3436,16 +3434,16 @@
         <v>208</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H58" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I58" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="J58">
         <v>16</v>
@@ -3454,7 +3452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3471,16 +3469,16 @@
         <v>208</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G59" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I59" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J59">
         <v>16</v>
@@ -3489,7 +3487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3506,16 +3504,16 @@
         <v>208</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H60" t="s">
         <v>111</v>
       </c>
       <c r="I60" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="J60">
         <v>16</v>
@@ -3524,7 +3522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3541,16 +3539,16 @@
         <v>208</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H61" t="s">
         <v>111</v>
       </c>
       <c r="I61" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J61">
         <v>16</v>
@@ -3559,7 +3557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -3576,16 +3574,16 @@
         <v>208</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H62" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I62" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J62">
         <v>28</v>
@@ -3594,7 +3592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -3611,16 +3609,16 @@
         <v>208</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H63" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I63" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J63">
         <v>16</v>
@@ -3629,7 +3627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -3646,16 +3644,16 @@
         <v>208</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H64" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I64" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J64">
         <v>16</v>
@@ -3664,7 +3662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -3681,13 +3679,13 @@
         <v>208</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H65" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I65" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J65">
         <v>8</v>
@@ -3696,7 +3694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -3713,13 +3711,13 @@
         <v>208</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I66" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3728,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -3745,13 +3743,13 @@
         <v>208</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H67" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3761,69 +3759,70 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F54" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F55" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F56" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F21" r:id="rId19"/>
+    <hyperlink ref="F22" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F25" r:id="rId22"/>
+    <hyperlink ref="F26" r:id="rId23"/>
+    <hyperlink ref="F27" r:id="rId24"/>
+    <hyperlink ref="F28" r:id="rId25"/>
+    <hyperlink ref="F29" r:id="rId26"/>
+    <hyperlink ref="F30" r:id="rId27"/>
+    <hyperlink ref="F31" r:id="rId28"/>
+    <hyperlink ref="F32" r:id="rId29"/>
+    <hyperlink ref="F33" r:id="rId30"/>
+    <hyperlink ref="F34" r:id="rId31"/>
+    <hyperlink ref="F35" r:id="rId32"/>
+    <hyperlink ref="F36" r:id="rId33"/>
+    <hyperlink ref="F37" r:id="rId34"/>
+    <hyperlink ref="F38" r:id="rId35"/>
+    <hyperlink ref="F39" r:id="rId36"/>
+    <hyperlink ref="F40" r:id="rId37"/>
+    <hyperlink ref="F41" r:id="rId38"/>
+    <hyperlink ref="F42" r:id="rId39"/>
+    <hyperlink ref="F43" r:id="rId40"/>
+    <hyperlink ref="F44" r:id="rId41"/>
+    <hyperlink ref="F45" r:id="rId42"/>
+    <hyperlink ref="F46" r:id="rId43"/>
+    <hyperlink ref="F47" r:id="rId44"/>
+    <hyperlink ref="F48" r:id="rId45"/>
+    <hyperlink ref="F49" r:id="rId46"/>
+    <hyperlink ref="F51" r:id="rId47"/>
+    <hyperlink ref="F52" r:id="rId48"/>
+    <hyperlink ref="F53" r:id="rId49"/>
+    <hyperlink ref="F54" r:id="rId50"/>
+    <hyperlink ref="F55" r:id="rId51"/>
+    <hyperlink ref="F56" r:id="rId52"/>
+    <hyperlink ref="F57" r:id="rId53"/>
+    <hyperlink ref="F58" r:id="rId54"/>
+    <hyperlink ref="F59" r:id="rId55"/>
+    <hyperlink ref="F60" r:id="rId56"/>
+    <hyperlink ref="F61" r:id="rId57"/>
+    <hyperlink ref="F62" r:id="rId58"/>
+    <hyperlink ref="F63" r:id="rId59"/>
+    <hyperlink ref="F64" r:id="rId60"/>
+    <hyperlink ref="F65" r:id="rId61"/>
+    <hyperlink ref="F66" r:id="rId62"/>
+    <hyperlink ref="F67" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
